--- a/DATA_goal/Junction_Flooding_274.xlsx
+++ b/DATA_goal/Junction_Flooding_274.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41706.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>8.6</v>
+        <v>0.86</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>6.14</v>
+        <v>0.61</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>2.77</v>
+        <v>0.28</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>19.16</v>
+        <v>1.92</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>13.86</v>
+        <v>1.39</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>5.64</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>18.71</v>
+        <v>1.87</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>10.71</v>
+        <v>1.07</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.49</v>
+        <v>0.45</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>5.51</v>
+        <v>0.55</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>7.62</v>
+        <v>0.76</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>8.49</v>
+        <v>0.85</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.9</v>
+        <v>0.29</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>6.99</v>
+        <v>0.7</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>9.18</v>
+        <v>0.92</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>6.66</v>
+        <v>0.67</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="S2" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AB2" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AC2" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AD2" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AE2" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AF2" s="4" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AG2" s="4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AH2" s="4" t="n">
         <v>0.8100000000000001</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>99.03</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>19.18</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>6.45</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>11.39</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>5.42</v>
-      </c>
-      <c r="AC2" s="4" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="AD2" s="4" t="n">
-        <v>8.449999999999999</v>
-      </c>
-      <c r="AE2" s="4" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="AF2" s="4" t="n">
-        <v>16.42</v>
-      </c>
-      <c r="AG2" s="4" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="AH2" s="4" t="n">
-        <v>8.07</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41706.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>18.8</v>
+        <v>1.88</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>13.99</v>
+        <v>1.4</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.71</v>
+        <v>0.17</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>41.36</v>
+        <v>4.14</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>33.17</v>
+        <v>3.32</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>14.18</v>
+        <v>1.42</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>53.81</v>
+        <v>5.38</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>22.94</v>
+        <v>2.29</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>10.3</v>
+        <v>1.03</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>14.47</v>
+        <v>1.45</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>16.56</v>
+        <v>1.66</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>17.75</v>
+        <v>1.78</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.11</v>
+        <v>0.51</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>14.89</v>
+        <v>1.49</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>20.88</v>
+        <v>2.09</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>12.89</v>
+        <v>1.29</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.61</v>
+        <v>0.06</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.87</v>
+        <v>0.09</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>219.29</v>
+        <v>21.93</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>41.57</v>
+        <v>4.16</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>13.74</v>
+        <v>1.37</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>27.55</v>
+        <v>2.75</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>14.85</v>
+        <v>1.48</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.93</v>
+        <v>0.19</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>28.02</v>
+        <v>2.8</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>12.14</v>
+        <v>1.21</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>10.89</v>
+        <v>1.09</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>12.69</v>
+        <v>1.27</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>17.57</v>
+        <v>1.76</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.96</v>
+        <v>0.1</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>49.16</v>
+        <v>4.92</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>7.57</v>
+        <v>0.76</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>17.18</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41706.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>17.13</v>
+        <v>1.71</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>12.78</v>
+        <v>1.28</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.27</v>
+        <v>0.13</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>37.62</v>
+        <v>3.76</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>30.42</v>
+        <v>3.04</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>13.05</v>
+        <v>1.3</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>53.26</v>
+        <v>5.33</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>20.86</v>
+        <v>2.09</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>9.44</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>13.36</v>
+        <v>1.34</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>15.07</v>
+        <v>1.51</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>16.12</v>
+        <v>1.61</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.57</v>
+        <v>0.46</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>13.53</v>
+        <v>1.35</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>19.08</v>
+        <v>1.91</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>11.61</v>
+        <v>1.16</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.42</v>
+        <v>0.04</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.72</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>198.7</v>
+        <v>19.87</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>37.88</v>
+        <v>3.79</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>12.49</v>
+        <v>1.25</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>25.24</v>
+        <v>2.52</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>13.48</v>
+        <v>1.35</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.76</v>
+        <v>0.18</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>26.6</v>
+        <v>2.66</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>11.04</v>
+        <v>1.1</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>9.859999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>11.53</v>
+        <v>1.15</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>15.93</v>
+        <v>1.59</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.64</v>
+        <v>0.06</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>48.62</v>
+        <v>4.86</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>6.94</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>15.62</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41706.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>8.029999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5.98</v>
+        <v>0.6</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.79</v>
+        <v>0.08</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>17.77</v>
+        <v>1.78</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>14.18</v>
+        <v>1.42</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>5.99</v>
+        <v>0.6</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>28.4</v>
+        <v>2.84</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>9.82</v>
+        <v>0.98</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>4.52</v>
+        <v>0.45</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>6.1</v>
+        <v>0.61</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>7.12</v>
+        <v>0.71</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>7.66</v>
+        <v>0.77</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.22</v>
+        <v>0.22</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>6.39</v>
+        <v>0.64</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>8.949999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>5.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>89.98</v>
+        <v>9</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>18.02</v>
+        <v>1.8</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>5.9</v>
+        <v>0.59</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>11.9</v>
+        <v>1.19</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>6.39</v>
+        <v>0.64</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.83</v>
+        <v>0.08</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>13.93</v>
+        <v>1.39</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>5.21</v>
+        <v>0.52</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.71</v>
+        <v>0.47</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>5.5</v>
+        <v>0.55</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>7.53</v>
+        <v>0.75</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>26.12</v>
+        <v>2.61</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.22</v>
+        <v>0.32</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>7.38</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41706.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>6.81</v>
+        <v>0.68</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>5.07</v>
+        <v>0.51</v>
       </c>
       <c r="D6" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AD6" s="4" t="n">
         <v>0.64</v>
       </c>
-      <c r="E6" s="4" t="n">
-        <v>15.05</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>12.04</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>22.46</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>8.31</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>5.18</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>4.73</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>75.06999999999999</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>10.03</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>11.12</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>6.37</v>
-      </c>
       <c r="AE6" s="4" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>20.5</v>
+        <v>2.05</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>2.73</v>
+        <v>0.27</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>6.25</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41706.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>18.35</v>
+        <v>1.84</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>13.75</v>
+        <v>1.38</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.96</v>
+        <v>0.1</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>40.13</v>
+        <v>4.01</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>32.84</v>
+        <v>3.28</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>14.22</v>
+        <v>1.42</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>53.24</v>
+        <v>5.32</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>22.28</v>
+        <v>2.23</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>10.1</v>
+        <v>1.01</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>14.61</v>
+        <v>1.46</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>16.1</v>
+        <v>1.61</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>17.13</v>
+        <v>1.71</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>4.75</v>
+        <v>0.47</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>14.44</v>
+        <v>1.44</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>20.48</v>
+        <v>2.05</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>12.17</v>
+        <v>1.22</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.28</v>
+        <v>0.03</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.65</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>212.41</v>
+        <v>21.24</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>40.29</v>
+        <v>4.03</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>13.33</v>
+        <v>1.33</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>27.09</v>
+        <v>2.71</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>14.35</v>
+        <v>1.44</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>1.89</v>
+        <v>0.19</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>26.74</v>
+        <v>2.67</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>11.77</v>
+        <v>1.18</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>10.42</v>
+        <v>1.04</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>12.24</v>
+        <v>1.22</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>16.95</v>
+        <v>1.7</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.32</v>
+        <v>0.03</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>48.27</v>
+        <v>4.83</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>7.5</v>
+        <v>0.75</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>16.66</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41706.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>17.31</v>
+        <v>1.73</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>12.97</v>
+        <v>1.3</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.87</v>
+        <v>0.09</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>37.83</v>
+        <v>3.78</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>30.99</v>
+        <v>3.1</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>13.42</v>
+        <v>1.34</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>53.59</v>
+        <v>5.36</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>21</v>
+        <v>2.1</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>9.539999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>13.8</v>
+        <v>1.38</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>15.18</v>
+        <v>1.52</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>16.14</v>
+        <v>1.61</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>4.47</v>
+        <v>0.45</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>13.61</v>
+        <v>1.36</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>19.33</v>
+        <v>1.93</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>11.45</v>
+        <v>1.15</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.61</v>
+        <v>0.06</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>199.84</v>
+        <v>19.98</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>38.08</v>
+        <v>3.81</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>12.56</v>
+        <v>1.26</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>25.62</v>
+        <v>2.56</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>13.54</v>
+        <v>1.35</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>1.78</v>
+        <v>0.18</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>26.39</v>
+        <v>2.64</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>11.1</v>
+        <v>1.11</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>9.82</v>
+        <v>0.98</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>11.53</v>
+        <v>1.15</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>15.98</v>
+        <v>1.6</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.28</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>48.79</v>
+        <v>4.88</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>7.08</v>
+        <v>0.71</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>15.71</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41706.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>2.62</v>
+        <v>0.26</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>1.94</v>
+        <v>0.19</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.34</v>
+        <v>0.03</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>5.85</v>
+        <v>0.59</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>4.59</v>
+        <v>0.46</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>1.89</v>
+        <v>0.19</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>14.85</v>
+        <v>1.49</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>3.21</v>
+        <v>0.32</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>1.64</v>
+        <v>0.16</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>1.9</v>
+        <v>0.19</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>2.35</v>
+        <v>0.23</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>2.55</v>
+        <v>0.26</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>0.78</v>
+        <v>0.08</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>2.11</v>
+        <v>0.21</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>3.03</v>
+        <v>0.3</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>1.9</v>
+        <v>0.19</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="S9" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T9" s="4" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="U9" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="V9" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="W9" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="X9" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="Y9" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Z9" s="4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AA9" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AB9" s="4" t="n">
         <v>0.16</v>
       </c>
-      <c r="T9" s="4" t="n">
-        <v>24.82</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>6.31</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>6.97</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>1.59</v>
-      </c>
       <c r="AC9" s="4" t="n">
-        <v>1.84</v>
+        <v>0.18</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>2.48</v>
+        <v>0.25</v>
       </c>
       <c r="AE9" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AF9" s="4" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AG9" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AH9" s="4" t="n">
         <v>0.24</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>14.09</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>2.44</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41706.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>3.59</v>
+        <v>0.36</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>2.67</v>
+        <v>0.27</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.35</v>
+        <v>0.03</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>7.94</v>
+        <v>0.79</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>6.34</v>
+        <v>0.63</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>2.67</v>
+        <v>0.27</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>12.24</v>
+        <v>1.22</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>4.37</v>
+        <v>0.44</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>2.04</v>
+        <v>0.2</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>2.71</v>
+        <v>0.27</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>3.18</v>
+        <v>0.32</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>3.43</v>
+        <v>0.34</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>0.99</v>
+        <v>0.1</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>2.86</v>
+        <v>0.29</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>3.96</v>
+        <v>0.4</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>2.51</v>
+        <v>0.25</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>36.14</v>
+        <v>3.61</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>7.97</v>
+        <v>0.8</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>2.64</v>
+        <v>0.26</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>5.24</v>
+        <v>0.52</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>2.83</v>
+        <v>0.28</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>0.37</v>
+        <v>0.04</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>5.9</v>
+        <v>0.59</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>2.33</v>
+        <v>0.23</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>2.11</v>
+        <v>0.21</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>2.47</v>
+        <v>0.25</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>3.36</v>
+        <v>0.34</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.22</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>11.11</v>
+        <v>1.11</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>1.43</v>
+        <v>0.14</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>3.3</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_274.xlsx
+++ b/DATA_goal/Junction_Flooding_274.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,7 +444,7 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
@@ -453,10 +453,10 @@
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
@@ -465,17 +465,17 @@
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="5" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41706.34027777778</v>
+        <v>44955.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H2" s="4" t="n">
         <v>0.86</v>
       </c>
-      <c r="C2" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="D2" s="4" t="n">
+      <c r="I2" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Z2" s="4" t="n">
         <v>0.28</v>
       </c>
-      <c r="E2" s="4" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="F2" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="G2" s="4" t="n">
+      <c r="AA2" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AB2" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AC2" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AD2" s="4" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="H2" s="4" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="AC2" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AD2" s="4" t="n">
-        <v>0.84</v>
-      </c>
       <c r="AE2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG2" s="4" t="n">
         <v>0.21</v>
       </c>
-      <c r="AF2" s="4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AG2" s="4" t="n">
-        <v>0.32</v>
-      </c>
       <c r="AH2" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41706.34722222222</v>
+        <v>44955.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.88</v>
+        <v>2.29</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.4</v>
+        <v>1.79</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.17</v>
+        <v>0.06</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>4.14</v>
+        <v>4.76</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.32</v>
+        <v>4.18</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.42</v>
+        <v>1.73</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>5.38</v>
+        <v>6.26</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.29</v>
+        <v>2.67</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.03</v>
+        <v>1.21</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.45</v>
+        <v>1.9</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.66</v>
+        <v>2.02</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.78</v>
+        <v>2.13</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.51</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.49</v>
+        <v>1.77</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.09</v>
+        <v>2.47</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="S3" s="4" t="n">
         <v>0.09</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>21.93</v>
+        <v>26.12</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>4.16</v>
+        <v>4.87</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.37</v>
+        <v>1.68</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.75</v>
+        <v>3.38</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.48</v>
+        <v>1.74</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.19</v>
+        <v>0.23</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.8</v>
+        <v>3.09</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.21</v>
+        <v>1.38</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.09</v>
+        <v>1.29</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.27</v>
+        <v>1.5</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.76</v>
+        <v>2.15</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>4.92</v>
+        <v>5.58</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.76</v>
+        <v>0.95</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.72</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41706.35416666666</v>
+        <v>44955.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.71</v>
+        <v>1.13</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.28</v>
+        <v>0.89</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.13</v>
+        <v>0.02</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.76</v>
+        <v>2.31</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.04</v>
+        <v>2.07</v>
       </c>
       <c r="G4" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="I4" s="4" t="n">
         <v>1.3</v>
       </c>
-      <c r="H4" s="4" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>2.09</v>
-      </c>
       <c r="J4" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K4" s="4" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="K4" s="4" t="n">
-        <v>1.34</v>
-      </c>
       <c r="L4" s="4" t="n">
-        <v>1.51</v>
+        <v>0.99</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.61</v>
+        <v>1.05</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.46</v>
+        <v>0.27</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.35</v>
+        <v>0.87</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.91</v>
+        <v>1.2</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.16</v>
+        <v>0.67</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>19.87</v>
+        <v>12.41</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.79</v>
+        <v>2.39</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.25</v>
+        <v>0.83</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.52</v>
+        <v>1.68</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.35</v>
+        <v>0.85</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.18</v>
+        <v>0.11</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.66</v>
+        <v>1.72</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.1</v>
+        <v>0.66</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.99</v>
+        <v>0.64</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.15</v>
+        <v>0.74</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.59</v>
+        <v>1.06</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>4.86</v>
+        <v>3.33</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.47</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.56</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41706.36111111111</v>
+        <v>44955.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.8</v>
+        <v>0.64</v>
       </c>
       <c r="C5" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="M5" s="4" t="n">
         <v>0.6</v>
       </c>
-      <c r="D5" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="K5" s="4" t="n">
+      <c r="N5" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>6.69</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AD5" s="4" t="n">
         <v>0.61</v>
       </c>
-      <c r="L5" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="AC5" s="4" t="n">
+      <c r="AE5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AH5" s="4" t="n">
         <v>0.55</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>0.74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41706.36805555555</v>
+        <v>44955.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>0.68</v>
+        <v>13.1</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.51</v>
+        <v>10.09</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.33</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>1.5</v>
+        <v>27.66</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>1.2</v>
+        <v>23.79</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>0.51</v>
+        <v>9.98</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>2.25</v>
+        <v>38.04</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>0.83</v>
+        <v>15.47</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.38</v>
+        <v>7.02</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>0.52</v>
+        <v>10.8</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>0.6</v>
+        <v>11.51</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>0.65</v>
+        <v>12.13</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.19</v>
+        <v>3.23</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>0.54</v>
+        <v>10.15</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>0.76</v>
+        <v>14.29</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>0.47</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.02</v>
+        <v>0.36</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.03</v>
+        <v>0.5</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>7.51</v>
+        <v>147.03</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>1.52</v>
+        <v>28.07</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>0.5</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>1</v>
+        <v>19.37</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>0.54</v>
+        <v>10.07</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>1.33</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>1.11</v>
+        <v>18.25</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>0.44</v>
+        <v>8.02</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.4</v>
+        <v>7.35</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>0.47</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>0.64</v>
+        <v>12.19</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>2.05</v>
+        <v>33.85</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.27</v>
+        <v>5.46</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41706.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>4.01</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>21.24</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>4.83</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>1.67</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41706.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>19.98</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>4.88</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>1.57</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41706.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41706.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41706.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>9.74</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>21.32</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>17.43</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>27.18</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>11.82</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>7.73</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>8.550000000000001</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>9.109999999999999</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>7.67</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>10.84</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>6.48</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>109.38</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>21.32</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>7.08</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>14.31</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>13.67</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>5.54</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>6.51</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>24.43</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>8.85</v>
+        <v>11.58</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_274.xlsx
+++ b/DATA_goal/Junction_Flooding_274.xlsx
@@ -443,34 +443,34 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="5" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
@@ -655,103 +655,103 @@
         <v>44955.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.49</v>
+        <v>4.93</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.53</v>
+        <v>5.34</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.6</v>
+        <v>5.98</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.03</v>
+        <v>10.25</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.51</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.86</v>
+        <v>8.57</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.4</v>
+        <v>4.04</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.17</v>
+        <v>1.75</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.53</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.5</v>
+        <v>5.05</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.18</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.79</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.48</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.59</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.5</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.1</v>
+        <v>1.04</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>4.31</v>
+        <v>43.1</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0.79</v>
+        <v>7.95</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.44</v>
+        <v>4.36</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.66</v>
+        <v>6.65</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.75</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.05</v>
+        <v>0.48</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.77</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.54</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.07</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.75</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.61</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.5</v>
+        <v>5.04</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.21</v>
+        <v>2.08</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44955.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.29</v>
+        <v>22.91</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.79</v>
+        <v>17.85</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.57</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>4.76</v>
+        <v>47.62</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>4.18</v>
+        <v>41.8</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.73</v>
+        <v>17.26</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>6.26</v>
+        <v>62.65</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.67</v>
+        <v>26.74</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.21</v>
+        <v>12.13</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.9</v>
+        <v>18.96</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>2.02</v>
+        <v>20.19</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>2.13</v>
+        <v>21.3</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.57</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.77</v>
+        <v>17.71</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.47</v>
+        <v>24.69</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.39</v>
+        <v>13.92</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.78</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.9</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>26.12</v>
+        <v>261.24</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>4.87</v>
+        <v>48.73</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.68</v>
+        <v>16.81</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>3.38</v>
+        <v>33.82</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.74</v>
+        <v>17.38</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.23</v>
+        <v>2.33</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>3.09</v>
+        <v>30.92</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.38</v>
+        <v>13.79</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.29</v>
+        <v>12.92</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.5</v>
+        <v>15.01</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>2.15</v>
+        <v>21.49</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>5.58</v>
+        <v>55.8</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.95</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.01</v>
+        <v>20.08</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44955.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.13</v>
+        <v>11.27</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.89</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.22</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.31</v>
+        <v>23.08</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.07</v>
+        <v>20.66</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.83</v>
+        <v>8.33</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.72</v>
+        <v>37.24</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.3</v>
+        <v>12.98</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.6</v>
+        <v>5.96</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.99</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.05</v>
+        <v>10.48</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.27</v>
+        <v>2.72</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.87</v>
+        <v>8.66</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.2</v>
+        <v>12.01</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.67</v>
+        <v>6.68</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>12.41</v>
+        <v>124.06</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.39</v>
+        <v>23.92</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.83</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.68</v>
+        <v>16.77</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.85</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.14</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.72</v>
+        <v>17.17</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.66</v>
+        <v>6.63</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.64</v>
+        <v>6.36</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.74</v>
+        <v>7.41</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.06</v>
+        <v>10.63</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>3.33</v>
+        <v>33.33</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.47</v>
+        <v>4.72</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.98</v>
+        <v>9.77</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44955.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
+        <v>6.41</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>12.88</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>22.22</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>7.27</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>13.49</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>9.58</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="Y5" s="4" t="n">
         <v>0.64</v>
       </c>
-      <c r="C5" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>6.69</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.06</v>
-      </c>
       <c r="Z5" s="4" t="n">
-        <v>0.99</v>
+        <v>9.93</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.37</v>
+        <v>3.67</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.36</v>
+        <v>3.62</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.42</v>
+        <v>4.23</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.61</v>
+        <v>6.09</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.97</v>
+        <v>19.72</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.27</v>
+        <v>2.71</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.55</v>
+        <v>5.48</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_274.xlsx
+++ b/DATA_goal/Junction_Flooding_274.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="5" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,100 +655,100 @@
         <v>44955.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.93</v>
+        <v>4.928</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.34</v>
+        <v>5.344</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>5.98</v>
+        <v>5.978</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>10.25</v>
+        <v>10.253</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>2.51</v>
+        <v>2.511</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>8.57</v>
+        <v>8.567</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>4.04</v>
+        <v>4.041</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.75</v>
+        <v>1.748</v>
       </c>
       <c r="K2" s="4" t="n">
         <v>4.53</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>5.05</v>
+        <v>5.048</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>5.18</v>
+        <v>5.182</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.79</v>
+        <v>0.791</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.48</v>
+        <v>3.479</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>3.59</v>
+        <v>3.593</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.5</v>
+        <v>1.503</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.04</v>
+        <v>1.042</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.42</v>
+        <v>0.417</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>43.1</v>
+        <v>43.098</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>7.95</v>
+        <v>7.946</v>
       </c>
       <c r="V2" s="4" t="n">
         <v>4.36</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>6.65</v>
+        <v>6.645</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>2.75</v>
+        <v>2.748</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.48</v>
+        <v>0.484</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.77</v>
+        <v>2.765</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.54</v>
+        <v>1.536</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>3.07</v>
+        <v>3.068</v>
       </c>
       <c r="AC2" s="4" t="n">
         <v>2.75</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>5.61</v>
+        <v>5.612</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.04</v>
+        <v>5.035</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.08</v>
+        <v>2.082</v>
       </c>
       <c r="AH2" s="4" t="n">
         <v>3.31</v>
@@ -759,103 +759,103 @@
         <v>44955.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>22.91</v>
+        <v>22.905</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>17.85</v>
+        <v>17.852</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.57</v>
+        <v>0.571</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>47.62</v>
+        <v>47.623</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>41.8</v>
+        <v>41.804</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>17.26</v>
+        <v>17.259</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>62.65</v>
+        <v>62.647</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>26.74</v>
+        <v>26.738</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>12.13</v>
+        <v>12.128</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>18.96</v>
+        <v>18.955</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>20.19</v>
+        <v>20.192</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>21.3</v>
+        <v>21.301</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.57</v>
+        <v>5.565</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>17.71</v>
+        <v>17.712</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>24.69</v>
+        <v>24.693</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>13.92</v>
+        <v>13.923</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.78</v>
+        <v>0.778</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.9</v>
+        <v>0.895</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>261.24</v>
+        <v>261.239</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>48.73</v>
+        <v>48.732</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>16.81</v>
+        <v>16.809</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>33.82</v>
+        <v>33.821</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>17.38</v>
+        <v>17.382</v>
       </c>
       <c r="Y3" s="4" t="n">
         <v>2.33</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>30.92</v>
+        <v>30.925</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>13.79</v>
+        <v>13.787</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>12.92</v>
+        <v>12.919</v>
       </c>
       <c r="AC3" s="4" t="n">
         <v>15.01</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>21.49</v>
+        <v>21.486</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>55.8</v>
+        <v>55.802</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>9.529999999999999</v>
+        <v>9.528</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>20.08</v>
+        <v>20.078</v>
       </c>
     </row>
     <row r="4">
@@ -863,67 +863,67 @@
         <v>44955.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>11.27</v>
+        <v>11.269</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>8.880000000000001</v>
+        <v>8.879</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.22</v>
+        <v>0.218</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>23.08</v>
+        <v>23.081</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>20.66</v>
+        <v>20.659</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>8.33</v>
+        <v>8.332000000000001</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>37.24</v>
+        <v>37.236</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>12.98</v>
+        <v>12.981</v>
       </c>
       <c r="J4" s="4" t="n">
         <v>5.96</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>9.4</v>
+        <v>9.398</v>
       </c>
       <c r="L4" s="4" t="n">
         <v>9.949999999999999</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>10.48</v>
+        <v>10.476</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.72</v>
+        <v>2.722</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>8.66</v>
+        <v>8.664999999999999</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>12.01</v>
+        <v>12.012</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>6.68</v>
+        <v>6.677</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.5</v>
+        <v>0.502</v>
       </c>
       <c r="S4" s="4" t="n">
         <v>0.5</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>124.06</v>
+        <v>124.064</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>23.92</v>
+        <v>23.917</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>8.279999999999999</v>
+        <v>8.282</v>
       </c>
       <c r="W4" s="4" t="n">
         <v>16.77</v>
@@ -935,31 +935,31 @@
         <v>1.14</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>17.17</v>
+        <v>17.171</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>6.63</v>
+        <v>6.631</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>6.36</v>
+        <v>6.358</v>
       </c>
       <c r="AC4" s="4" t="n">
         <v>7.41</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>10.63</v>
+        <v>10.633</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>33.33</v>
+        <v>33.327</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.72</v>
+        <v>4.723</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>9.77</v>
+        <v>9.766999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>5.48</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44955.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>10.09</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>27.66</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>23.79</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>9.98</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>38.04</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>15.47</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>7.02</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>10.15</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>14.29</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>8.119999999999999</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>147.03</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>28.07</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>9.529999999999999</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>19.37</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>10.07</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>18.25</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>8.640000000000001</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>33.85</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>5.46</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>11.58</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_274.xlsx
+++ b/DATA_goal/Junction_Flooding_274.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -970,100 +970,204 @@
         <v>6.41</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5.12</v>
+        <v>5.125</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>12.88</v>
+        <v>12.884</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>11.82</v>
+        <v>11.817</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>4.63</v>
+        <v>4.631</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>22.22</v>
+        <v>22.218</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>7.27</v>
+        <v>7.267</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.38</v>
+        <v>3.378</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>5.39</v>
+        <v>5.394</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>5.68</v>
+        <v>5.678</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>5.96</v>
+        <v>5.961</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.54</v>
+        <v>1.537</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>4.89</v>
+        <v>4.892</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>6.73</v>
+        <v>6.728</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.68</v>
+        <v>3.683</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.37</v>
+        <v>0.365</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.32</v>
+        <v>0.323</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>66.90000000000001</v>
+        <v>66.899</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>13.49</v>
+        <v>13.486</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>4.72</v>
+        <v>4.723</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>9.58</v>
+        <v>9.584</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>4.84</v>
+        <v>4.837</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.64</v>
+        <v>0.645</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>9.93</v>
+        <v>9.935</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.67</v>
+        <v>3.667</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.62</v>
+        <v>3.619</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>4.23</v>
+        <v>4.228</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>6.09</v>
+        <v>6.093</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>19.72</v>
+        <v>19.721</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.71</v>
+        <v>2.709</v>
       </c>
       <c r="AH5" s="4" t="n">
         <v>5.48</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44955.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>10.09</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>27.66</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>23.79</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>38.04</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>15.47</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>7.02</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>10.15</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>14.29</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>147.03</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>28.07</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>19.37</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>10.07</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>8.640000000000001</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>33.85</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>11.58</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_274.xlsx
+++ b/DATA_goal/Junction_Flooding_274.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -970,204 +970,100 @@
         <v>6.41</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5.125</v>
+        <v>5.12</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>12.884</v>
+        <v>12.88</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>11.817</v>
+        <v>11.82</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>4.631</v>
+        <v>4.63</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>22.218</v>
+        <v>22.22</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>7.267</v>
+        <v>7.27</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.378</v>
+        <v>3.38</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>5.394</v>
+        <v>5.39</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>5.678</v>
+        <v>5.68</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>5.961</v>
+        <v>5.96</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.537</v>
+        <v>1.54</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>4.892</v>
+        <v>4.89</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>6.728</v>
+        <v>6.73</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.683</v>
+        <v>3.68</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.365</v>
+        <v>0.37</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.323</v>
+        <v>0.32</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>66.899</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>13.486</v>
+        <v>13.49</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>4.723</v>
+        <v>4.72</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>9.584</v>
+        <v>9.58</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>4.837</v>
+        <v>4.84</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.645</v>
+        <v>0.64</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>9.935</v>
+        <v>9.93</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.667</v>
+        <v>3.67</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.619</v>
+        <v>3.62</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>4.228</v>
+        <v>4.23</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>6.093</v>
+        <v>6.09</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>19.721</v>
+        <v>19.72</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.709</v>
+        <v>2.71</v>
       </c>
       <c r="AH5" s="4" t="n">
         <v>5.48</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44955.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>10.09</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>27.66</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>23.79</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>9.98</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>38.04</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>15.47</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>7.02</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>10.15</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>14.29</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>8.119999999999999</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>147.03</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>28.07</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>9.529999999999999</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>19.37</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>10.07</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>18.25</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>8.640000000000001</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>33.85</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>5.46</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>11.58</v>
       </c>
     </row>
   </sheetData>
